--- a/reports/others/potato/potato-ath_pss_no-orthologues_2025-09-15.xlsx
+++ b/reports/others/potato/potato-ath_pss_no-orthologues_2025-09-15.xlsx
@@ -23,6 +23,12 @@
     <t xml:space="preserve">short_name</t>
   </si>
   <si>
+    <t xml:space="preserve">athName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">athSynonims</t>
+  </si>
+  <si>
     <t xml:space="preserve">ath_BINCODE</t>
   </si>
   <si>
@@ -32,10 +38,223 @@
     <t xml:space="preserve">ath_DESCRIPTION</t>
   </si>
   <si>
-    <t xml:space="preserve">athName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">athSynonims</t>
+    <t xml:space="preserve">AT1G49190</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hormone - Cytokinins (CK)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARR-B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RR19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARR19 | response regulator 19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4.2.1.3.2 | 14.5.3.2.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phytohormone action.cytokinin.perception and signal transduction.histidine-aspartate phosphorelay signal transduction.response regulator activities.ARR B-type regulatory protein | RNA biosynthesis.DNA-binding transcriptional regulation.helix-turn-helix DNA-binding domain.tryptophan-cluster structure.ARR-B-type transcription factor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mercator4v7.0: ARR B-type regulatory protein of cytokinin signalling &amp; original description: | AT1G49190 | mercator4v7.0: ARR-B-type transcription factor &amp; original description: | AT1G49190</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT3G17600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hormone - Auxins (AUX)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUX/IAA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IAA31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2.2.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phytohormone action.auxin.perception and signal transduction.transcriptional repressor *(IAA/AUX)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mercator4v7.0: transcriptional repressor *(IAA/AUX) &amp; original description: | AT3G17600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT3G62100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IAA30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mercator4v7.0: transcriptional repressor *(IAA/AUX) &amp; original description: | AT3G62100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT1G52400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hormone - Abscisic acid (ABA),Stress - Drought</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BGLU18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BETA-GLUCOSIDASE HOMOLOG 1 | BGL1 | ATBG1 | A. THALIANA BETA-GLUCOSIDASE 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.3.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enzyme classification.EC_3 hydrolases.EC_3-2 glycosylase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mercator4v7.0: EC_3.2 glycosylase &amp; original description: | AT1G52400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT3G18910</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hormone - Ethylene (ET)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ETP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ETP2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not assigned.not annotated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mercator4v7.0: not classified &amp; original description: | AT3G18910</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT3G18980</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ETP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mercator4v7.0: not classified &amp; original description: | AT3G18980</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT4G21690</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hormone - Gibberellin (GA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GA3ox</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GA3OX3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATGA3OX3 | ARABIDOPSIS THALIANA GIBBERELLIN 3-OXIDASE 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6.1.6 | 50.1.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phytohormone action.gibberellin.biosynthesis.gibberellin 3-oxidase | Enzyme classification.EC_1 oxidoreductases.EC_1-14 oxidoreductase acting on paired donor with incorporation or reduction of molecular oxygen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mercator4v7.0: gibberellin 3-oxidase &amp; original description: | AT4G21690 | mercator4v7.0: EC_1.14 oxidoreductase acting on paired donor with incorporation or reduction of molecular oxygen &amp; original description: | AT4G21690</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT2G19310</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Signalling - Heat-shock proteins (HSPs)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HSP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1.9.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Protein homeostasis.protein quality control.smallHsp holdase chaperone activities.class-C-IV protein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mercator4v7.0: class-C-IV small heat-shock-responsive protein &amp; original description: | AT2G19310</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT3G16470</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hormone - Jasmonate (JA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JR1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jacalin-related lectin 35 | JAL35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mercator4v7.0: not classified &amp; original description: | AT3G16470</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT5G60300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Signalling - Perception and resistance genes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LECRK19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LecRK-I.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does not Respond to Nucleotides 1 | DORN1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4.1.19.2 | 50.2.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Protein modification.phosphorylation.TKL protein kinase activities.Lectin-type receptor-like protein kinase activities.L-Lectin protein kinase | Enzyme classification.EC_2 transferases.EC_2-7 transferase transferring phosphorus-containing group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mercator4v7.0: L-Lectin protein kinase &amp; original description: | AT5G60300 | mercator4v7.0: EC_2.7 transferase transferring phosphorus-containing group &amp; original description: | AT5G60300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT2G22040</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primary metabolism - Photosynthesis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LST8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LST8-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.10.1.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multi-process regulation.TOR (Target Of Rapamycin) signalling.TORC complex.regulatory component *(LST8)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mercator4v7.0: regulatory component *(LST8) of TORC complex &amp; original description: | AT2G22040</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT2G38325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regulation - Silencing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIR390</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT5G58465</t>
   </si>
   <si>
     <t xml:space="preserve">AT1G02450</t>
@@ -47,6 +266,12 @@
     <t xml:space="preserve">NIMIN</t>
   </si>
   <si>
+    <t xml:space="preserve">NIMIN1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NIMIN-1</t>
+  </si>
+  <si>
     <t xml:space="preserve">26.11.3.1.5</t>
   </si>
   <si>
@@ -56,324 +281,159 @@
     <t xml:space="preserve">mercator4v7.0: regulatory protein *(NIMIN1) of Systemic Acquired Resistance &amp; original description: | AT1G02450</t>
   </si>
   <si>
-    <t xml:space="preserve">NIMIN1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NIMIN-1</t>
-  </si>
-  <si>
     <t xml:space="preserve">AT1G09415</t>
   </si>
   <si>
+    <t xml:space="preserve">NIMIN-3</t>
+  </si>
+  <si>
     <t xml:space="preserve">mercator4v7.0: regulatory protein *(NIMIN1) of Systemic Acquired Resistance &amp; original description: | AT1G09415</t>
   </si>
   <si>
-    <t xml:space="preserve">NIMIN-3</t>
+    <t xml:space="preserve">AT2G22000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hormone - Peptides</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROPEP6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.9.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">External stimuli response.damage.elicitor peptide precursor *(proPEP)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mercator4v7.0: elicitor peptide precursor *(proPEP)) &amp; original description: | AT2G22000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT5G09976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mercator4v7.0: elicitor peptide precursor *(proPEP)) &amp; original description: | AT5G09976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT5G09978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEP7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mercator4v7.0: not classified &amp; original description: | AT5G09978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT5G09980</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROPEP4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mercator4v7.0: elicitor peptide precursor *(proPEP)) &amp; original description: | AT5G09980</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT5G09990</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROPEP5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mercator4v7.0: elicitor peptide precursor *(proPEP)) &amp; original description: | AT5G09990</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT5G64890</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROPEP2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mercator4v7.0: elicitor peptide precursor *(proPEP)) &amp; original description: | AT5G64890</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT5G64900</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROPEP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEPTIDE 1 | ARABIDOPSIS THALIANA PEPTIDE 1 | PEP1 | ATPEP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mercator4v7.0: elicitor peptide precursor *(proPEP)) &amp; original description: | AT5G64900</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT5G64905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROPEP3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mercator4v7.0: elicitor peptide precursor *(proPEP)) &amp; original description: | AT5G64905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT2G34650</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABR | ABRUPTUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2.4.1.2 | 29.2.6.3 | 50.2.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phytohormone action.auxin.transport.polar auxin transport system.regulatory protein kinase *(PINOID) | Plant organogenesis.root formation.polar auxin transport activity.regulatory protein kinase *(PID/PID2) | Enzyme classification.EC_2 transferases.EC_2-7 transferase transferring phosphorus-containing group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mercator4v7.0: regulatory protein kinase *(PINOID) of auxin transport &amp; original description: | AT2G34650 | mercator4v7.0: regulatory protein kinase *(PID/PID2) of PIN2 auxin transporter activity &amp; original description: | AT2G34650 | mercator4v7.0: EC_2.7 transferase transferring phosphorus-containing group &amp; original description: | AT2G34650</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT3G17185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAS3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT5G49615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT2G23260</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UGT84B1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.2.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enzyme classification.EC_2 transferases.EC_2-4 glycosyltransferase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mercator4v7.0: EC_2.4 glycosyltransferase &amp; original description: | AT2G23260</t>
   </si>
   <si>
     <t xml:space="preserve">AT1G18075</t>
   </si>
   <si>
-    <t xml:space="preserve">Regulation - Silencing</t>
-  </si>
-  <si>
     <t xml:space="preserve">miR159AB</t>
   </si>
   <si>
-    <t xml:space="preserve">AT1G49190</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hormone - Cytokinins (CK)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARR-B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4.2.1.3.2 | 14.5.3.2.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phytohormone action.cytokinin.perception and signal transduction.histidine-aspartate phosphorelay signal transduction.response regulator activities.ARR B-type regulatory protein | RNA biosynthesis.DNA-binding transcriptional regulation.helix-turn-helix DNA-binding domain.tryptophan-cluster structure.ARR-B-type transcription factor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mercator4v7.0: ARR B-type regulatory protein of cytokinin signalling &amp; original description: | AT1G49190 | mercator4v7.0: ARR-B-type transcription factor &amp; original description: | AT1G49190</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RR19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARR19 | response regulator 19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT1G52400</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hormone - Abscisic acid (ABA),Stress - Drought</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BGLU18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.3.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enzyme classification.EC_3 hydrolases.EC_3-2 glycosylase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mercator4v7.0: EC_3.2 glycosylase &amp; original description: | AT1G52400</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BETA-GLUCOSIDASE HOMOLOG 1 | BGL1 | ATBG1 | A. THALIANA BETA-GLUCOSIDASE 1</t>
-  </si>
-  <si>
     <t xml:space="preserve">AT1G73687</t>
   </si>
   <si>
-    <t xml:space="preserve">AT2G19310</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Signalling - Heat-shock proteins (HSPs)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HSP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.1.9.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Protein homeostasis.protein quality control.smallHsp holdase chaperone activities.class-C-IV protein</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mercator4v7.0: class-C-IV small heat-shock-responsive protein &amp; original description: | AT2G19310</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT2G22000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hormone - Peptides</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PEP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.9.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">External stimuli response.damage.elicitor peptide precursor *(proPEP)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mercator4v7.0: elicitor peptide precursor *(proPEP)) &amp; original description: | AT2G22000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PROPEP6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT2G22040</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Primary metabolism - Photosynthesis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LST8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.10.1.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Multi-process regulation.TOR (Target Of Rapamycin) signalling.TORC complex.regulatory component *(LST8)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mercator4v7.0: regulatory component *(LST8) of TORC complex &amp; original description: | AT2G22040</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LST8-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT2G23260</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hormone - Auxins (AUX)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UGT84B1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.2.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enzyme classification.EC_2 transferases.EC_2-4 glycosyltransferase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mercator4v7.0: EC_2.4 glycosyltransferase &amp; original description: | AT2G23260</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT2G34650</t>
-  </si>
-  <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
-    <t xml:space="preserve">PID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2.4.1.2 | 29.2.6.3 | 50.2.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phytohormone action.auxin.transport.polar auxin transport system.regulatory protein kinase *(PINOID) | Plant organogenesis.root formation.polar auxin transport activity.regulatory protein kinase *(PID/PID2) | Enzyme classification.EC_2 transferases.EC_2-7 transferase transferring phosphorus-containing group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mercator4v7.0: regulatory protein kinase *(PINOID) of auxin transport &amp; original description: | AT2G34650 | mercator4v7.0: regulatory protein kinase *(PID/PID2) of PIN2 auxin transporter activity &amp; original description: | AT2G34650 | mercator4v7.0: EC_2.7 transferase transferring phosphorus-containing group &amp; original description: | AT2G34650</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABR | ABRUPTUS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT2G38325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MIR390</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT3G16470</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hormone - Jasmonate (JA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JR1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">not assigned.not annotated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mercator4v7.0: not classified &amp; original description: | AT3G16470</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jacalin-related lectin 35 | JAL35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT3G17185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAS3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT3G17600</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AUX/IAA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2.2.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phytohormone action.auxin.perception and signal transduction.transcriptional repressor *(IAA/AUX)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mercator4v7.0: transcriptional repressor *(IAA/AUX) &amp; original description: | AT3G17600</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IAA31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT3G18910</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hormone - Ethylene (ET)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ETP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mercator4v7.0: not classified &amp; original description: | AT3G18910</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ETP2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT3G18980</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mercator4v7.0: not classified &amp; original description: | AT3G18980</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ETP1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT3G62100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mercator4v7.0: transcriptional repressor *(IAA/AUX) &amp; original description: | AT3G62100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IAA30</t>
-  </si>
-  <si>
     <t xml:space="preserve">AT4G19395</t>
   </si>
   <si>
     <t xml:space="preserve">miR168</t>
   </si>
   <si>
-    <t xml:space="preserve">AT4G21690</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hormone - Gibberellin (GA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GA3ox</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6.1.6 | 50.1.13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phytohormone action.gibberellin.biosynthesis.gibberellin 3-oxidase | Enzyme classification.EC_1 oxidoreductases.EC_1-14 oxidoreductase acting on paired donor with incorporation or reduction of molecular oxygen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mercator4v7.0: gibberellin 3-oxidase &amp; original description: | AT4G21690 | mercator4v7.0: EC_1.14 oxidoreductase acting on paired donor with incorporation or reduction of molecular oxygen &amp; original description: | AT4G21690</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GA3OX3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATGA3OX3 | ARABIDOPSIS THALIANA GIBBERELLIN 3-OXIDASE 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT5G09976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mercator4v7.0: elicitor peptide precursor *(proPEP)) &amp; original description: | AT5G09976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT5G09978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mercator4v7.0: not classified &amp; original description: | AT5G09978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PEP7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT5G09980</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mercator4v7.0: elicitor peptide precursor *(proPEP)) &amp; original description: | AT5G09980</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PROPEP4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT5G09990</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mercator4v7.0: elicitor peptide precursor *(proPEP)) &amp; original description: | AT5G09990</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PROPEP5</t>
-  </si>
-  <si>
     <t xml:space="preserve">AT5G14545</t>
   </si>
   <si>
@@ -381,66 +441,6 @@
   </si>
   <si>
     <t xml:space="preserve">miR398b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT5G49615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT5G58465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT5G60300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Signalling - Perception and resistance genes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LECRK19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4.1.19.2 | 50.2.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Protein modification.phosphorylation.TKL protein kinase activities.Lectin-type receptor-like protein kinase activities.L-Lectin protein kinase | Enzyme classification.EC_2 transferases.EC_2-7 transferase transferring phosphorus-containing group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mercator4v7.0: L-Lectin protein kinase &amp; original description: | AT5G60300 | mercator4v7.0: EC_2.7 transferase transferring phosphorus-containing group &amp; original description: | AT5G60300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LecRK-I.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Does not Respond to Nucleotides 1 | DORN1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT5G64890</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mercator4v7.0: elicitor peptide precursor *(proPEP)) &amp; original description: | AT5G64890</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PROPEP2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT5G64900</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mercator4v7.0: elicitor peptide precursor *(proPEP)) &amp; original description: | AT5G64900</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PROPEP1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PEPTIDE 1 | ARABIDOPSIS THALIANA PEPTIDE 1 | PEP1 | ATPEP1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT5G64905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mercator4v7.0: elicitor peptide precursor *(proPEP)) &amp; original description: | AT5G64905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PROPEP3</t>
   </si>
 </sst>
 </file>
@@ -494,11 +494,11 @@
     <tableColumn id="1" name="id"/>
     <tableColumn id="2" name="all_pathways"/>
     <tableColumn id="3" name="short_name"/>
-    <tableColumn id="4" name="ath_BINCODE"/>
-    <tableColumn id="5" name="ath_NAME"/>
-    <tableColumn id="6" name="ath_DESCRIPTION"/>
-    <tableColumn id="7" name="athName"/>
-    <tableColumn id="8" name="athSynonims"/>
+    <tableColumn id="4" name="athName"/>
+    <tableColumn id="5" name="athSynonims"/>
+    <tableColumn id="6" name="ath_BINCODE"/>
+    <tableColumn id="7" name="ath_NAME"/>
+    <tableColumn id="8" name="ath_DESCRIPTION"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -846,238 +846,256 @@
         <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="E3"/>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3"/>
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4"/>
+      <c r="F4" t="s">
         <v>20</v>
       </c>
-      <c r="C4" t="s">
+      <c r="G4" t="s">
         <v>21</v>
       </c>
-      <c r="D4"/>
-      <c r="E4"/>
-      <c r="F4"/>
-      <c r="G4"/>
-      <c r="H4"/>
+      <c r="H4" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" t="s">
-        <v>34</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="E6"/>
       <c r="F6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G6" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H6" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7"/>
+      <c r="F7" t="s">
         <v>37</v>
       </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7"/>
-      <c r="E7"/>
-      <c r="F7"/>
-      <c r="G7"/>
-      <c r="H7"/>
+      <c r="G7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E8" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F8" t="s">
-        <v>43</v>
-      </c>
-      <c r="G8"/>
-      <c r="H8"/>
+        <v>48</v>
+      </c>
+      <c r="G8" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E9" t="s">
-        <v>48</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="D9"/>
+      <c r="E9"/>
       <c r="F9" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="G9" t="s">
-        <v>50</v>
-      </c>
-      <c r="H9"/>
+        <v>55</v>
+      </c>
+      <c r="H9" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C10" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D10" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E10" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F10" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>57</v>
-      </c>
-      <c r="H10"/>
+        <v>38</v>
+      </c>
+      <c r="H10" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C11" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D11" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E11" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F11" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G11" t="s">
-        <v>60</v>
-      </c>
-      <c r="H11"/>
+        <v>68</v>
+      </c>
+      <c r="H11" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B12" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C12" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D12" t="s">
-        <v>67</v>
-      </c>
-      <c r="E12" t="s">
-        <v>68</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="E12"/>
       <c r="F12" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="G12" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="H12" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="C13" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D13"/>
       <c r="E13"/>
@@ -1087,287 +1105,297 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="B14" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C14" t="s">
-        <v>75</v>
-      </c>
-      <c r="D14" t="s">
-        <v>76</v>
-      </c>
-      <c r="E14" t="s">
-        <v>77</v>
-      </c>
-      <c r="F14" t="s">
-        <v>78</v>
-      </c>
-      <c r="G14" t="s">
-        <v>75</v>
-      </c>
-      <c r="H14" t="s">
         <v>79</v>
       </c>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="C15" t="s">
-        <v>81</v>
-      </c>
-      <c r="D15"/>
-      <c r="E15"/>
-      <c r="F15"/>
-      <c r="G15"/>
-      <c r="H15"/>
+        <v>83</v>
+      </c>
+      <c r="D15" t="s">
+        <v>84</v>
+      </c>
+      <c r="E15" t="s">
+        <v>85</v>
+      </c>
+      <c r="F15" t="s">
+        <v>86</v>
+      </c>
+      <c r="G15" t="s">
+        <v>87</v>
+      </c>
+      <c r="H15" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>89</v>
+      </c>
+      <c r="B16" t="s">
         <v>82</v>
-      </c>
-      <c r="B16" t="s">
-        <v>59</v>
       </c>
       <c r="C16" t="s">
         <v>83</v>
       </c>
       <c r="D16" t="s">
-        <v>84</v>
-      </c>
-      <c r="E16" t="s">
-        <v>85</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="E16"/>
       <c r="F16" t="s">
         <v>86</v>
       </c>
       <c r="G16" t="s">
         <v>87</v>
       </c>
-      <c r="H16"/>
+      <c r="H16" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B17" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C17" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D17" t="s">
-        <v>76</v>
-      </c>
-      <c r="E17" t="s">
-        <v>77</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="E17"/>
       <c r="F17" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="G17" t="s">
-        <v>92</v>
-      </c>
-      <c r="H17"/>
+        <v>97</v>
+      </c>
+      <c r="H17" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>99</v>
+      </c>
+      <c r="B18" t="s">
         <v>93</v>
       </c>
-      <c r="B18" t="s">
-        <v>89</v>
-      </c>
       <c r="C18" t="s">
-        <v>90</v>
-      </c>
-      <c r="D18" t="s">
-        <v>76</v>
-      </c>
-      <c r="E18" t="s">
-        <v>77</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="D18"/>
+      <c r="E18"/>
       <c r="F18" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G18" t="s">
-        <v>95</v>
-      </c>
-      <c r="H18"/>
+        <v>97</v>
+      </c>
+      <c r="H18" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B19" t="s">
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="C19" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="D19" t="s">
-        <v>84</v>
-      </c>
-      <c r="E19" t="s">
-        <v>85</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="E19"/>
       <c r="F19" t="s">
-        <v>97</v>
+        <v>37</v>
       </c>
       <c r="G19" t="s">
-        <v>98</v>
-      </c>
-      <c r="H19"/>
+        <v>38</v>
+      </c>
+      <c r="H19" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="C20" t="s">
-        <v>100</v>
-      </c>
-      <c r="D20"/>
+        <v>94</v>
+      </c>
+      <c r="D20" t="s">
+        <v>105</v>
+      </c>
       <c r="E20"/>
-      <c r="F20"/>
-      <c r="G20"/>
-      <c r="H20"/>
+      <c r="F20" t="s">
+        <v>96</v>
+      </c>
+      <c r="G20" t="s">
+        <v>97</v>
+      </c>
+      <c r="H20" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B21" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="C21" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D21" t="s">
-        <v>104</v>
-      </c>
-      <c r="E21" t="s">
-        <v>105</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="E21"/>
       <c r="F21" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="G21" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="H21" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="C22" t="s">
-        <v>46</v>
+        <v>94</v>
       </c>
       <c r="D22" t="s">
-        <v>47</v>
-      </c>
-      <c r="E22" t="s">
-        <v>48</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="E22"/>
       <c r="F22" t="s">
-        <v>110</v>
-      </c>
-      <c r="G22"/>
-      <c r="H22"/>
+        <v>96</v>
+      </c>
+      <c r="G22" t="s">
+        <v>97</v>
+      </c>
+      <c r="H22" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="C23" t="s">
-        <v>46</v>
+        <v>94</v>
       </c>
       <c r="D23" t="s">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="E23" t="s">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="F23" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="G23" t="s">
-        <v>113</v>
-      </c>
-      <c r="H23"/>
+        <v>97</v>
+      </c>
+      <c r="H23" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B24" t="s">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="C24" t="s">
-        <v>46</v>
+        <v>94</v>
       </c>
       <c r="D24" t="s">
-        <v>47</v>
-      </c>
-      <c r="E24" t="s">
-        <v>48</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="E24"/>
       <c r="F24" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="G24" t="s">
-        <v>116</v>
-      </c>
-      <c r="H24"/>
+        <v>97</v>
+      </c>
+      <c r="H24" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B25" t="s">
-        <v>45</v>
+        <v>121</v>
       </c>
       <c r="C25" t="s">
-        <v>46</v>
+        <v>122</v>
       </c>
       <c r="D25" t="s">
-        <v>47</v>
+        <v>122</v>
       </c>
       <c r="E25" t="s">
-        <v>48</v>
+        <v>123</v>
       </c>
       <c r="F25" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="G25" t="s">
-        <v>119</v>
-      </c>
-      <c r="H25"/>
+        <v>125</v>
+      </c>
+      <c r="H25" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B26" t="s">
-        <v>121</v>
+        <v>78</v>
       </c>
       <c r="C26" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="D26"/>
       <c r="E26"/>
@@ -1377,13 +1405,13 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B27" t="s">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="C27" t="s">
-        <v>81</v>
+        <v>128</v>
       </c>
       <c r="D27"/>
       <c r="E27"/>
@@ -1393,118 +1421,90 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="B28" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C28" t="s">
-        <v>72</v>
-      </c>
-      <c r="D28"/>
+        <v>131</v>
+      </c>
+      <c r="D28" t="s">
+        <v>131</v>
+      </c>
       <c r="E28"/>
-      <c r="F28"/>
-      <c r="G28"/>
-      <c r="H28"/>
+      <c r="F28" t="s">
+        <v>132</v>
+      </c>
+      <c r="G28" t="s">
+        <v>133</v>
+      </c>
+      <c r="H28" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="B29" t="s">
-        <v>126</v>
+        <v>78</v>
       </c>
       <c r="C29" t="s">
-        <v>127</v>
-      </c>
-      <c r="D29" t="s">
-        <v>128</v>
-      </c>
-      <c r="E29" t="s">
-        <v>129</v>
-      </c>
-      <c r="F29" t="s">
-        <v>130</v>
-      </c>
-      <c r="G29" t="s">
-        <v>131</v>
-      </c>
-      <c r="H29" t="s">
-        <v>132</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29"/>
+      <c r="G29"/>
+      <c r="H29"/>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B30" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="C30" t="s">
-        <v>46</v>
-      </c>
-      <c r="D30" t="s">
-        <v>47</v>
-      </c>
-      <c r="E30" t="s">
-        <v>48</v>
-      </c>
-      <c r="F30" t="s">
-        <v>134</v>
-      </c>
-      <c r="G30" t="s">
-        <v>135</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="D30"/>
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="G30"/>
       <c r="H30"/>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B31" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="C31" t="s">
-        <v>46</v>
-      </c>
-      <c r="D31" t="s">
-        <v>47</v>
-      </c>
-      <c r="E31" t="s">
-        <v>48</v>
-      </c>
-      <c r="F31" t="s">
-        <v>137</v>
-      </c>
-      <c r="G31" t="s">
-        <v>138</v>
-      </c>
-      <c r="H31" t="s">
         <v>139</v>
       </c>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="G31"/>
+      <c r="H31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
         <v>140</v>
       </c>
       <c r="B32" t="s">
-        <v>45</v>
+        <v>141</v>
       </c>
       <c r="C32" t="s">
-        <v>46</v>
-      </c>
-      <c r="D32" t="s">
-        <v>47</v>
-      </c>
-      <c r="E32" t="s">
-        <v>48</v>
-      </c>
-      <c r="F32" t="s">
-        <v>141</v>
-      </c>
-      <c r="G32" t="s">
         <v>142</v>
       </c>
+      <c r="D32"/>
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32"/>
       <c r="H32"/>
     </row>
   </sheetData>
